--- a/opinions/parsed_wiki_data/2018.xlsx
+++ b/opinions/parsed_wiki_data/2018.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,6 @@
           <t>kavanaugh</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>kavanagh</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -530,8 +525,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -581,8 +575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -632,8 +625,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -683,8 +675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -734,8 +725,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -785,8 +775,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -836,8 +825,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -887,8 +875,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -938,8 +925,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -989,8 +975,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1040,8 +1025,7 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1091,8 +1075,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1142,8 +1125,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1193,8 +1175,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1249,7 +1230,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1300,7 +1280,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1351,7 +1330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1402,7 +1380,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1453,7 +1430,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1504,7 +1480,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1555,7 +1530,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1606,7 +1580,6 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1657,7 +1630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1708,7 +1680,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1759,7 +1730,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1810,7 +1780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1861,7 +1830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1912,7 +1880,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1963,7 +1930,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2014,7 +1980,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2065,7 +2030,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2111,8 +2075,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2162,8 +2125,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2218,7 +2180,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2269,7 +2230,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2320,7 +2280,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2371,7 +2330,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2422,7 +2380,6 @@
           <t>joinconcurrence2</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2473,7 +2430,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2524,7 +2480,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2575,7 +2530,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2626,7 +2580,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2677,7 +2630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2728,7 +2680,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2779,7 +2730,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2830,7 +2780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2881,7 +2830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2932,7 +2880,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2983,7 +2930,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3034,7 +2980,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3085,7 +3030,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3136,7 +3080,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3187,7 +3130,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3238,7 +3180,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3289,7 +3230,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3335,8 +3275,7 @@
           <t>joinconcurrence1</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>concurrence2</t>
         </is>
@@ -3386,8 +3325,7 @@
           <t>concurrence4</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3437,8 +3375,7 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3488,8 +3425,7 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -3539,8 +3475,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3590,8 +3525,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3641,8 +3575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3692,8 +3625,7 @@
           <t>partjoindissent</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -3743,8 +3675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3794,8 +3725,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3845,8 +3775,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3896,8 +3825,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>dissent</t>
         </is>
@@ -3947,8 +3875,7 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3998,8 +3925,7 @@
           <t>concurrence2|justice8-sortcode</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>partjoinconcurrence2|justice9-opinion2</t>
         </is>
@@ -4049,8 +3975,7 @@
           <t>plurality</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>joindissent</t>
         </is>
@@ -4100,8 +4025,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -4151,8 +4075,7 @@
           <t>partjoinmajority</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
         </is>

--- a/opinions/parsed_wiki_data/2018.xlsx
+++ b/opinions/parsed_wiki_data/2018.xlsx
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority| justice2-sortcode</t>
+          <t>joinmajority|justice2-sortcode</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">

--- a/opinions/parsed_wiki_data/2018.xlsx
+++ b/opinions/parsed_wiki_data/2018.xlsx
@@ -487,12 +487,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,27 +502,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,37 +542,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,47 +687,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -747,37 +747,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,42 +787,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -847,17 +847,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,37 +887,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -947,37 +947,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1052,32 +1052,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,37 +1087,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1137,47 +1137,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>concurrencewithoutopinion</t>
+          <t>concurrence concurrencewithoutopinion</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1317,17 +1317,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1402,32 +1402,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1452,22 +1452,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1487,42 +1487,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1537,17 +1537,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1557,17 +1557,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1587,17 +1587,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1612,22 +1612,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1637,37 +1637,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1687,17 +1687,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1707,27 +1707,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1747,37 +1747,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,22 +1812,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,32 +1837,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,37 +1987,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,47 +2037,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2092,42 +2092,42 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>dissent4</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2137,32 +2137,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2207,27 +2207,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2247,37 +2247,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2287,42 +2287,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>dissent|justice8-sortcode</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2387,22 +2387,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2492,22 +2492,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>concurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2517,17 +2517,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2562,22 +2562,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,47 +2637,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>concurrencedissentwithoutopinion</t>
+          <t>concurrencedissentwithoutopinion concurrence dissentwithoutopinion dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2717,17 +2717,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2737,12 +2737,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2752,32 +2752,32 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2787,17 +2787,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2807,27 +2807,27 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2857,17 +2857,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,37 +2897,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2937,17 +2937,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2987,42 +2987,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3062,22 +3062,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3087,22 +3087,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3112,22 +3112,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority|justice2-sortcode</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3152,22 +3152,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,17 +3237,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
     </row>
@@ -3287,12 +3287,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3312,22 +3312,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>concurrence4</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,22 +3387,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3442,27 +3442,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,22 +3512,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3537,27 +3537,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3597,32 +3597,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>concurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>concurrencedissent3</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,37 +3737,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3787,37 +3787,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3837,22 +3837,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,12 +3862,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3887,32 +3887,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinconcurrence2|justice2-sortcode</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>partjoinconcurrence2|justice5-opinion2</t>
+          <t>concurrence partjoinconcurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3922,12 +3922,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>concurrence2|justice8-sortcode</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>partjoinconcurrence2|justice9-opinion2</t>
+          <t>concurrence partjoinconcurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3937,17 +3937,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3992,27 +3992,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4042,42 +4042,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2018.xlsx
+++ b/opinions/parsed_wiki_data/2018.xlsx
@@ -487,12 +487,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,27 +502,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,37 +542,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,47 +687,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -747,37 +747,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,42 +787,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,37 +887,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -947,37 +947,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1052,32 +1052,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,37 +1087,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,27 +1137,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1187,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1402,32 +1402,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1452,22 +1452,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1487,42 +1487,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1687,17 +1687,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1707,27 +1707,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1747,37 +1747,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,22 +1812,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,32 +1837,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1907,17 +1907,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2007,17 +2007,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,47 +2037,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2137,32 +2137,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2247,37 +2247,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2362,17 +2362,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2437,32 +2437,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2492,22 +2492,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2517,17 +2517,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,47 +2637,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>concurrencedissentwithoutopinion concurrence dissentwithoutopinion dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent concurrencedissentwithoutopinion dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2737,12 +2737,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2752,32 +2752,32 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2787,17 +2787,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2807,27 +2807,27 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2857,17 +2857,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,37 +2897,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2987,42 +2987,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3262,12 +3262,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,22 +3512,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3537,27 +3537,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3597,32 +3597,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3667,17 +3667,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3737,37 +3737,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3847,12 +3847,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,12 +3862,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3897,22 +3897,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence joinconcurrence</t>
+          <t>concurrence joinconcurrence partjoinconcurrence</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence joinconcurrence</t>
+          <t>concurrence joinconcurrence partjoinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4042,42 +4042,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
